--- a/GridSearchCV_results/CKD_case/train_results_clf_fpipe_c.xlsx
+++ b/GridSearchCV_results/CKD_case/train_results_clf_fpipe_c.xlsx
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04786386489868164</v>
+        <v>0.04752969741821289</v>
       </c>
       <c r="C2">
-        <v>0.009958673706609932</v>
+        <v>0.01275396936339973</v>
       </c>
       <c r="D2">
-        <v>0.03231196403503418</v>
+        <v>0.02940793037414551</v>
       </c>
       <c r="E2">
-        <v>0.004397252801297821</v>
+        <v>0.006698448165590678</v>
       </c>
       <c r="F2" t="s">
         <v>63</v>
@@ -980,16 +980,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05704360008239746</v>
+        <v>0.05816531181335449</v>
       </c>
       <c r="C3">
-        <v>0.003858632291855274</v>
+        <v>0.004787814655134202</v>
       </c>
       <c r="D3">
-        <v>0.03670015335083008</v>
+        <v>0.02771334648132324</v>
       </c>
       <c r="E3">
-        <v>0.004900991247301181</v>
+        <v>0.003613983533636935</v>
       </c>
       <c r="F3" t="s">
         <v>63</v>
@@ -1174,16 +1174,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.382166051864624</v>
+        <v>0.2795199871063233</v>
       </c>
       <c r="C4">
-        <v>0.02056884456193742</v>
+        <v>0.008223539453831995</v>
       </c>
       <c r="D4">
-        <v>0.05485234260559082</v>
+        <v>0.0405156135559082</v>
       </c>
       <c r="E4">
-        <v>0.008003190539803697</v>
+        <v>0.002483918768720574</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -1368,16 +1368,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3368873119354248</v>
+        <v>0.2359130382537842</v>
       </c>
       <c r="C5">
-        <v>0.0723615356503214</v>
+        <v>0.04454885809408572</v>
       </c>
       <c r="D5">
-        <v>0.04328255653381348</v>
+        <v>0.0258641242980957</v>
       </c>
       <c r="E5">
-        <v>0.01060188390719646</v>
+        <v>0.006311647251569457</v>
       </c>
       <c r="F5" t="s">
         <v>64</v>

--- a/GridSearchCV_results/CKD_case/train_results_clf_fpipe_c.xlsx
+++ b/GridSearchCV_results/CKD_case/train_results_clf_fpipe_c.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epedufi-my.sharepoint.com/personal/pedro_morenosanchez_seamk_fi/Documents/SeAMK/GitHub/FeatureSelection_Classifier_Pipeline/GridSearchCV_results/CKD_case/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_FFC65FC09C996AC486160BF7FB3795BA44EA04BC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88799B9D-BFD0-49C7-9FF6-0F5F6CD9161A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>mean_fit_time</t>
   </si>
@@ -211,6 +217,24 @@
     <t>RandomForestClassifier(random_state=42)</t>
   </si>
   <si>
+    <t>ExtraTreesClassifier(random_state=42)</t>
+  </si>
+  <si>
+    <t>AdaBoostClassifier(random_state=42)</t>
+  </si>
+  <si>
+    <t>XGBClassifier(random_state=42)</t>
+  </si>
+  <si>
+    <t>GradientBoostingClassifier(random_state=42)</t>
+  </si>
+  <si>
+    <t>VotingClassifier(estimators=[('rdf', RandomForestClassifier(random_state=42)),
+                             ('xtra', ExtraTreesClassifier(random_state=42)),
+                             ('ada', AdaBoostClassifier(random_state=42))],
+                 voting='soft')</t>
+  </si>
+  <si>
     <t>mean</t>
   </si>
   <si>
@@ -227,13 +251,52 @@
   </si>
   <si>
     <t>{'clf': RandomForestClassifier(random_state=42), 'data_prep__numeric_pipe__data_missing__strategy': 'median'}</t>
+  </si>
+  <si>
+    <t>{'clf': ExtraTreesClassifier(random_state=42), 'data_prep__numeric_pipe__data_missing__strategy': 'mean'}</t>
+  </si>
+  <si>
+    <t>{'clf': ExtraTreesClassifier(random_state=42), 'data_prep__numeric_pipe__data_missing__strategy': 'median'}</t>
+  </si>
+  <si>
+    <t>{'clf': AdaBoostClassifier(random_state=42), 'data_prep__numeric_pipe__data_missing__strategy': 'mean'}</t>
+  </si>
+  <si>
+    <t>{'clf': AdaBoostClassifier(random_state=42), 'data_prep__numeric_pipe__data_missing__strategy': 'median'}</t>
+  </si>
+  <si>
+    <t>{'clf': XGBClassifier(random_state=42), 'data_prep__numeric_pipe__data_missing__strategy': 'mean'}</t>
+  </si>
+  <si>
+    <t>{'clf': XGBClassifier(random_state=42), 'data_prep__numeric_pipe__data_missing__strategy': 'median'}</t>
+  </si>
+  <si>
+    <t>{'clf': GradientBoostingClassifier(random_state=42), 'data_prep__numeric_pipe__data_missing__strategy': 'mean'}</t>
+  </si>
+  <si>
+    <t>{'clf': GradientBoostingClassifier(random_state=42), 'data_prep__numeric_pipe__data_missing__strategy': 'median'}</t>
+  </si>
+  <si>
+    <t>{'clf': VotingClassifier(estimators=[('rdf', RandomForestClassifier(random_state=42)),
+                             ('xtra', ExtraTreesClassifier(random_state=42)),
+                             ('ada', AdaBoostClassifier(random_state=42))],
+                 voting='soft'), 'data_prep__numeric_pipe__data_missing__strategy': 'mean'}</t>
+  </si>
+  <si>
+    <t>{'clf': VotingClassifier(estimators=[('rdf', RandomForestClassifier(random_state=42)),
+                             ('xtra', ExtraTreesClassifier(random_state=42)),
+                             ('ada', AdaBoostClassifier(random_state=42))],
+                 voting='soft'), 'data_prep__numeric_pipe__data_missing__strategy': 'median'}</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,9 +357,174 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{699AD472-70A0-46D3-B136-5873CB2210F4}" name="Table1" displayName="Table1" ref="A1:BL15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:BL15" xr:uid="{6C9B481A-A807-46C1-99FC-14DFF1D9CF0D}">
+    <filterColumn colId="5">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice Requires="x14">
+          <filters>
+            <x14:filter val="VotingClassifier(estimators=[('rdf', RandomForestClassifier(random_state=42)),_x000a_                             ('xtra', ExtraTreesClassifier(random_state=42)),_x000a_                             ('ada', AdaBoostClassifier(random_state=42))],_x000a_                 voting='soft')"/>
+          </filters>
+        </mc:Choice>
+        <mc:Fallback>
+          <customFilters>
+            <customFilter val=""/>
+            <customFilter operator="notEqual" val=" "/>
+          </customFilters>
+        </mc:Fallback>
+      </mc:AlternateContent>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BL15">
+    <sortCondition ref="P1:P15"/>
+  </sortState>
+  <tableColumns count="64">
+    <tableColumn id="1" xr3:uid="{2552E0FE-037A-46E7-9A80-ED6105FCF05E}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BC950B4D-90F2-4959-A13F-B04D700CFCF5}" name="mean_fit_time"/>
+    <tableColumn id="3" xr3:uid="{149B0DA0-263D-48E3-A78C-8DB685055799}" name="std_fit_time"/>
+    <tableColumn id="4" xr3:uid="{408DAF86-4130-44F3-9716-C84F0F99C13B}" name="mean_score_time"/>
+    <tableColumn id="5" xr3:uid="{F100F6DF-81A3-4420-B9A3-62B74CF38E1B}" name="std_score_time"/>
+    <tableColumn id="6" xr3:uid="{B71FEBF4-3763-4BC0-9E30-DEB86B273DFD}" name="param_clf"/>
+    <tableColumn id="7" xr3:uid="{BF15DE74-1BFE-40E7-BD12-9597A2E16308}" name="param_data_prep__numeric_pipe__data_missing__strategy"/>
+    <tableColumn id="8" xr3:uid="{B7124625-D101-4426-9E14-EEAC25268F97}" name="params"/>
+    <tableColumn id="9" xr3:uid="{9D49C0B0-8AC8-4EBE-B8CE-D67EFC55E02F}" name="split0_test_accuracy"/>
+    <tableColumn id="10" xr3:uid="{A2EA8D0C-79CD-46BF-88C4-6D0D14447E4A}" name="split1_test_accuracy"/>
+    <tableColumn id="11" xr3:uid="{D30469C1-AC30-4FCE-9C46-35F63E7F6989}" name="split2_test_accuracy"/>
+    <tableColumn id="12" xr3:uid="{6D0A216A-4FD5-4715-B2D5-BFE6AA37D8AE}" name="split3_test_accuracy"/>
+    <tableColumn id="13" xr3:uid="{0260B15A-2AD1-432A-BEBE-1F8C1365FF5E}" name="split4_test_accuracy"/>
+    <tableColumn id="14" xr3:uid="{3AF80CDC-06C8-4310-B290-95AD77546139}" name="mean_test_accuracy"/>
+    <tableColumn id="15" xr3:uid="{DEACE5F2-F9A8-44D2-BEC6-87D826B845CB}" name="std_test_accuracy"/>
+    <tableColumn id="16" xr3:uid="{00D6721B-71CF-48E4-AA32-CCA9CF9A2587}" name="rank_test_accuracy"/>
+    <tableColumn id="17" xr3:uid="{3F409F96-C085-44FF-8470-9945AF8D1A54}" name="split0_test_sensitivity"/>
+    <tableColumn id="18" xr3:uid="{96BC83F3-1932-4E15-91C3-7C2EB878E8B3}" name="split1_test_sensitivity"/>
+    <tableColumn id="19" xr3:uid="{5CDC4776-F1B6-44B5-BD1D-1FBFE4C73061}" name="split2_test_sensitivity"/>
+    <tableColumn id="20" xr3:uid="{59CC7C42-8019-4512-8343-9B3E882F83C8}" name="split3_test_sensitivity"/>
+    <tableColumn id="21" xr3:uid="{D0BD9F6E-589B-4BAA-B794-BCA121A4F490}" name="split4_test_sensitivity"/>
+    <tableColumn id="22" xr3:uid="{7D7863AC-CAC9-4FB6-95F3-52DABE5257EC}" name="mean_test_sensitivity"/>
+    <tableColumn id="23" xr3:uid="{9358A9FE-AF79-45B7-BDFC-0C06B3B09431}" name="std_test_sensitivity"/>
+    <tableColumn id="24" xr3:uid="{A43E01A4-67F1-4A36-874E-417B026ED781}" name="rank_test_sensitivity"/>
+    <tableColumn id="25" xr3:uid="{0F8FD182-E99E-4CD9-992C-31CC3CC12E30}" name="split0_test_specificity"/>
+    <tableColumn id="26" xr3:uid="{67FAF6EE-2EEB-40D7-AC89-DF9BF4F33B37}" name="split1_test_specificity"/>
+    <tableColumn id="27" xr3:uid="{41F280C8-753A-4732-B568-C6203D435897}" name="split2_test_specificity"/>
+    <tableColumn id="28" xr3:uid="{29F21A27-5735-4BB9-A810-92570224DFFD}" name="split3_test_specificity"/>
+    <tableColumn id="29" xr3:uid="{5918E4F7-3595-44BB-85C8-C197AC1B63C2}" name="split4_test_specificity"/>
+    <tableColumn id="30" xr3:uid="{74E56889-DFB8-4CE1-95B8-ABFFD01A37FC}" name="mean_test_specificity"/>
+    <tableColumn id="31" xr3:uid="{A3FB301E-D55A-4C91-A7D3-9F0D09696378}" name="std_test_specificity"/>
+    <tableColumn id="32" xr3:uid="{AEC4EA28-751D-4B71-97FD-64735F64FCEC}" name="rank_test_specificity"/>
+    <tableColumn id="33" xr3:uid="{491F8302-FF25-444A-90C4-F0926930817E}" name="split0_test_precision"/>
+    <tableColumn id="34" xr3:uid="{9F1D8103-BE90-41BE-94CA-7B1ACB6A6F91}" name="split1_test_precision"/>
+    <tableColumn id="35" xr3:uid="{CC893F90-B855-43B0-B164-49589FE73F5D}" name="split2_test_precision"/>
+    <tableColumn id="36" xr3:uid="{2BE3C332-78CC-42DB-B0F3-5A79F87D18EA}" name="split3_test_precision"/>
+    <tableColumn id="37" xr3:uid="{E4A674AC-CACC-4FEB-93BC-EEB47C8CFE45}" name="split4_test_precision"/>
+    <tableColumn id="38" xr3:uid="{EFC03ACC-FA24-4B39-860F-8D8A61F84652}" name="mean_test_precision"/>
+    <tableColumn id="39" xr3:uid="{428F8781-2AD1-49F4-971B-CAC2B42BA976}" name="std_test_precision"/>
+    <tableColumn id="40" xr3:uid="{0B3A604A-F6CB-46C0-926A-B921D53A0DC5}" name="rank_test_precision"/>
+    <tableColumn id="41" xr3:uid="{073DC270-961D-4C39-B1D1-4D45589B26B7}" name="split0_test_f1"/>
+    <tableColumn id="42" xr3:uid="{8CAD06D2-6EFD-41C2-A21D-541AB8EDE980}" name="split1_test_f1"/>
+    <tableColumn id="43" xr3:uid="{AB77D947-D726-4BDB-B88E-5436B87CF4E4}" name="split2_test_f1"/>
+    <tableColumn id="44" xr3:uid="{499A98AF-578F-4124-A211-F0EA075D9FDE}" name="split3_test_f1"/>
+    <tableColumn id="45" xr3:uid="{3E8A3D3C-3321-4E21-9129-3FEF94549FDB}" name="split4_test_f1"/>
+    <tableColumn id="46" xr3:uid="{24A7AFBE-9494-4ADB-BD4F-88046366E490}" name="mean_test_f1"/>
+    <tableColumn id="47" xr3:uid="{F3B2EBBC-37C5-407B-A1CC-25F8408785D0}" name="std_test_f1"/>
+    <tableColumn id="48" xr3:uid="{1EF8533E-8F44-4468-8CD8-E50CF001426E}" name="rank_test_f1"/>
+    <tableColumn id="49" xr3:uid="{3ACD93E2-1DDF-4758-B816-4AB7C97D3C69}" name="split0_test_roc_auc"/>
+    <tableColumn id="50" xr3:uid="{DB4CE3F0-6932-4DA1-AECE-424D4A1044F8}" name="split1_test_roc_auc"/>
+    <tableColumn id="51" xr3:uid="{7AAE54D2-3DD7-4E73-99DB-CD89D404FEB4}" name="split2_test_roc_auc"/>
+    <tableColumn id="52" xr3:uid="{7383A917-8054-4734-B3D6-C94DFD6B767C}" name="split3_test_roc_auc"/>
+    <tableColumn id="53" xr3:uid="{2180B2FE-8E03-4890-BA5C-E7A2A4D0A0C4}" name="split4_test_roc_auc"/>
+    <tableColumn id="54" xr3:uid="{4F22402E-9DDE-4186-8E2C-D53EDA726B33}" name="mean_test_roc_auc"/>
+    <tableColumn id="55" xr3:uid="{FAB906B4-EF09-4160-8394-79EC1007521D}" name="std_test_roc_auc"/>
+    <tableColumn id="56" xr3:uid="{BEF12780-F517-4801-9113-14CB220245B5}" name="rank_test_roc_auc"/>
+    <tableColumn id="57" xr3:uid="{1BEAFC82-60D6-4B5C-BDA2-2FE5B950F345}" name="split0_test_mcc"/>
+    <tableColumn id="58" xr3:uid="{B1120EB0-58E3-47D5-9955-480D63FC99BF}" name="split1_test_mcc"/>
+    <tableColumn id="59" xr3:uid="{31016723-4F5A-4DCD-8D77-44AC1431327B}" name="split2_test_mcc"/>
+    <tableColumn id="60" xr3:uid="{A24D3A59-C284-4C8F-9E12-57CF0744F0E3}" name="split3_test_mcc"/>
+    <tableColumn id="61" xr3:uid="{617AE3C6-8CDF-4F58-B3F8-5F2D1954ABE6}" name="split4_test_mcc"/>
+    <tableColumn id="62" xr3:uid="{148319F8-4483-467F-9005-008D909E1EF8}" name="mean_test_mcc"/>
+    <tableColumn id="63" xr3:uid="{F2CB832A-62BF-4B25-8AEB-8D6208C6DEA4}" name="std_test_mcc"/>
+    <tableColumn id="64" xr3:uid="{D9163EB2-3D0B-458D-9510-69D73D5FBB4B}" name="rank_test_mcc"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,7 +570,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,9 +602,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,6 +654,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,14 +847,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL4" sqref="AL4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="55.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="13" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" customWidth="1"/>
+    <col min="17" max="21" width="22.5703125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" customWidth="1"/>
+    <col min="23" max="23" width="20.42578125" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" customWidth="1"/>
+    <col min="25" max="29" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="22.5703125" customWidth="1"/>
+    <col min="31" max="31" width="20.28515625" customWidth="1"/>
+    <col min="32" max="32" width="21.42578125" customWidth="1"/>
+    <col min="33" max="37" width="21.5703125" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="21.7109375" customWidth="1"/>
+    <col min="39" max="39" width="19.42578125" customWidth="1"/>
+    <col min="40" max="40" width="20.5703125" customWidth="1"/>
+    <col min="41" max="45" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" customWidth="1"/>
+    <col min="47" max="47" width="13" customWidth="1"/>
+    <col min="48" max="48" width="14.140625" customWidth="1"/>
+    <col min="49" max="53" width="20.140625" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="20.28515625" customWidth="1"/>
+    <col min="55" max="55" width="18" customWidth="1"/>
+    <col min="56" max="56" width="19.140625" customWidth="1"/>
+    <col min="57" max="61" width="16.85546875" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="17" customWidth="1"/>
+    <col min="63" max="63" width="14.7109375" customWidth="1"/>
+    <col min="64" max="64" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:64">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,63 +1088,63 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:64">
+    <row r="2" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0.04752969741821289</v>
+        <v>0.13175878524780271</v>
       </c>
       <c r="C2">
-        <v>0.01275396936339973</v>
+        <v>1.587540988596009E-2</v>
       </c>
       <c r="D2">
-        <v>0.02940793037414551</v>
+        <v>2.5191020965576169E-2</v>
       </c>
       <c r="E2">
-        <v>0.006698448165590678</v>
+        <v>6.98273981021693E-3</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I2">
-        <v>0.9642857142857143</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9464285714285714</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>0.9821428571428571</v>
       </c>
       <c r="L2">
-        <v>0.9642857142857143</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.9678571428571429</v>
+        <v>0.99642857142857155</v>
       </c>
       <c r="O2">
-        <v>0.01336306209562121</v>
+        <v>7.1428571428571617E-3</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.9047619047619048</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -846,13 +1153,13 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9428571428571428</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.05553287518900288</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -861,22 +1168,22 @@
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.97142857142857142</v>
       </c>
       <c r="AB2">
-        <v>0.9428571428571428</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9828571428571429</v>
+        <v>0.99428571428571433</v>
       </c>
       <c r="AE2">
-        <v>0.02285714285714286</v>
+        <v>1.142857142857143E-2</v>
       </c>
       <c r="AF2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -885,153 +1192,153 @@
         <v>1</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="AJ2">
-        <v>0.9130434782608695</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0.9735177865612649</v>
+        <v>0.99090909090909096</v>
       </c>
       <c r="AM2">
-        <v>0.03498861023925808</v>
+        <v>1.8181818181818171E-2</v>
       </c>
       <c r="AN2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO2">
-        <v>0.9500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0.923076923076923</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.975609756097561</v>
+        <v>0.9767441860465117</v>
       </c>
       <c r="AR2">
-        <v>0.9545454545454545</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0.9767441860465117</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0.95599526395329</v>
+        <v>0.99534883720930234</v>
       </c>
       <c r="AU2">
-        <v>0.01968201398917098</v>
+        <v>9.302325581395321E-3</v>
       </c>
       <c r="AV2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0.9761904761904762</v>
+        <v>0.98571428571428565</v>
       </c>
       <c r="AZ2">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0.9857142857142857</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0.9628571428571429</v>
+        <v>0.99714285714285711</v>
       </c>
       <c r="BC2">
-        <v>0.02029264357396428</v>
+        <v>5.7142857142857377E-3</v>
       </c>
       <c r="BD2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>0.9251247785330668</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0.8885233166386385</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>0.9622504486493763</v>
+        <v>0.96295001286293536</v>
       </c>
       <c r="BH2">
-        <v>0.9278305692406299</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>0.9629500128629354</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0.9333358251849294</v>
+        <v>0.992590002572587</v>
       </c>
       <c r="BK2">
-        <v>0.02763673502518561</v>
+        <v>1.4819994854825861E-2</v>
       </c>
       <c r="BL2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:64">
+    <row r="3" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0.05816531181335449</v>
+        <v>0.11215229034423831</v>
       </c>
       <c r="C3">
-        <v>0.004787814655134202</v>
+        <v>2.832277594178471E-3</v>
       </c>
       <c r="D3">
-        <v>0.02771334648132324</v>
+        <v>2.4949693679809572E-2</v>
       </c>
       <c r="E3">
-        <v>0.003613983533636935</v>
+        <v>1.4826879260515179E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I3">
-        <v>0.9464285714285714</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9464285714285714</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0.9821428571428571</v>
       </c>
       <c r="L3">
-        <v>0.9642857142857143</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0.9642857142857142</v>
+        <v>0.99642857142857155</v>
       </c>
       <c r="O3">
-        <v>0.01597191412499849</v>
+        <v>7.1428571428571617E-3</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.9047619047619048</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -1040,159 +1347,159 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <v>0.9428571428571428</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.05553287518900288</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>1</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.97142857142857142</v>
       </c>
       <c r="AB3">
-        <v>0.9428571428571428</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9771428571428572</v>
+        <v>0.99428571428571433</v>
       </c>
       <c r="AE3">
-        <v>0.02138089935299396</v>
+        <v>1.142857142857143E-2</v>
       </c>
       <c r="AF3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="AJ3">
-        <v>0.9130434782608695</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0.9635177865612649</v>
+        <v>0.99090909090909096</v>
       </c>
       <c r="AM3">
-        <v>0.03308411367559984</v>
+        <v>1.8181818181818171E-2</v>
       </c>
       <c r="AN3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO3">
-        <v>0.9268292682926829</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0.923076923076923</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.975609756097561</v>
+        <v>0.9767441860465117</v>
       </c>
       <c r="AR3">
-        <v>0.9545454545454545</v>
+        <v>1</v>
       </c>
       <c r="AS3">
-        <v>0.9767441860465117</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0.9513611176118266</v>
+        <v>0.99534883720930234</v>
       </c>
       <c r="AU3">
-        <v>0.02299671248150071</v>
+        <v>9.302325581395321E-3</v>
       </c>
       <c r="AV3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW3">
-        <v>0.938095238095238</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="AY3">
-        <v>0.9761904761904762</v>
+        <v>0.98571428571428565</v>
       </c>
       <c r="AZ3">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="BA3">
-        <v>0.9857142857142857</v>
+        <v>1</v>
       </c>
       <c r="BB3">
-        <v>0.96</v>
+        <v>0.99714285714285711</v>
       </c>
       <c r="BC3">
-        <v>0.02245681166200304</v>
+        <v>5.7142857142857377E-3</v>
       </c>
       <c r="BD3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BE3">
-        <v>0.8852704127574261</v>
+        <v>1</v>
       </c>
       <c r="BF3">
-        <v>0.8885233166386385</v>
+        <v>1</v>
       </c>
       <c r="BG3">
-        <v>0.9622504486493763</v>
+        <v>0.96295001286293536</v>
       </c>
       <c r="BH3">
-        <v>0.9278305692406299</v>
+        <v>1</v>
       </c>
       <c r="BI3">
-        <v>0.9629500128629354</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
-        <v>0.9253649520298012</v>
+        <v>0.992590002572587</v>
       </c>
       <c r="BK3">
-        <v>0.03389434792024421</v>
+        <v>1.4819994854825861E-2</v>
       </c>
       <c r="BL3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:64">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.2795199871063233</v>
+        <v>0.30413293838500982</v>
       </c>
       <c r="C4">
-        <v>0.008223539453831995</v>
+        <v>1.7337029851687329E-2</v>
       </c>
       <c r="D4">
-        <v>0.0405156135559082</v>
+        <v>3.7786531448364261E-2</v>
       </c>
       <c r="E4">
-        <v>0.002483918768720574</v>
+        <v>2.8819998804870059E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1204,16 +1511,16 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9821428571428571</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4">
-        <v>0.9928571428571429</v>
+        <v>0.99642857142857155</v>
       </c>
       <c r="O4">
-        <v>0.008748177652797088</v>
+        <v>7.1428571428571617E-3</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1222,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <v>0.9523809523809523</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1234,13 +1541,13 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.9904761904761905</v>
+        <v>0.99047619047619051</v>
       </c>
       <c r="W4">
-        <v>0.01904761904761907</v>
+        <v>1.904761904761907E-2</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -1252,16 +1559,16 @@
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9714285714285714</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9942857142857143</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.01142857142857143</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1276,16 +1583,16 @@
         <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="AK4">
         <v>1</v>
       </c>
       <c r="AL4">
-        <v>0.990909090909091</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0.01818181818181817</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -1294,270 +1601,2213 @@
         <v>1</v>
       </c>
       <c r="AP4">
-        <v>0.975609756097561</v>
+        <v>0.97560975609756095</v>
       </c>
       <c r="AQ4">
         <v>1</v>
       </c>
       <c r="AR4">
-        <v>0.9767441860465117</v>
+        <v>1</v>
       </c>
       <c r="AS4">
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>0.9904707884288145</v>
+        <v>0.99512195121951219</v>
       </c>
       <c r="AU4">
-        <v>0.01167636514003952</v>
+        <v>9.7560975609756184E-3</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW4">
         <v>1</v>
       </c>
       <c r="AX4">
-        <v>0.9761904761904762</v>
+        <v>0.97619047619047616</v>
       </c>
       <c r="AY4">
         <v>1</v>
       </c>
       <c r="AZ4">
-        <v>0.9857142857142857</v>
+        <v>1</v>
       </c>
       <c r="BA4">
         <v>1</v>
       </c>
       <c r="BB4">
-        <v>0.9923809523809524</v>
+        <v>0.99523809523809526</v>
       </c>
       <c r="BC4">
-        <v>0.009805362039035256</v>
+        <v>9.5238095238095333E-3</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BE4">
         <v>1</v>
       </c>
       <c r="BF4">
-        <v>0.9622504486493763</v>
+        <v>0.96225044864937626</v>
       </c>
       <c r="BG4">
         <v>1</v>
       </c>
       <c r="BH4">
-        <v>0.9629500128629354</v>
+        <v>1</v>
       </c>
       <c r="BI4">
         <v>1</v>
       </c>
       <c r="BJ4">
-        <v>0.9850400923024623</v>
+        <v>0.99245008972987525</v>
       </c>
       <c r="BK4">
-        <v>0.01832340570110153</v>
+        <v>1.50998205402495E-2</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:64">
+    <row r="5" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>0.2359130382537842</v>
+        <v>0.15000758171081541</v>
       </c>
       <c r="C5">
-        <v>0.04454885809408572</v>
+        <v>1.053723357650822E-2</v>
       </c>
       <c r="D5">
-        <v>0.0258641242980957</v>
+        <v>2.440147399902344E-2</v>
       </c>
       <c r="E5">
-        <v>0.006311647251569457</v>
+        <v>4.9132677020236239E-3</v>
       </c>
       <c r="F5" t="s">
         <v>64</v>
       </c>
       <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0.99285714285714288</v>
+      </c>
+      <c r="O5">
+        <v>8.7481776527970883E-3</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0.99047619047619051</v>
+      </c>
+      <c r="W5">
+        <v>1.904761904761907E-2</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0.99428571428571433</v>
+      </c>
+      <c r="AE5">
+        <v>1.142857142857143E-2</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>0.99090909090909096</v>
+      </c>
+      <c r="AM5">
+        <v>1.8181818181818171E-2</v>
+      </c>
+      <c r="AN5">
+        <v>2</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>0.99047078842881453</v>
+      </c>
+      <c r="AU5">
+        <v>1.1676365140039519E-2</v>
+      </c>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>0.97619047619047616</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>0.99238095238095236</v>
+      </c>
+      <c r="BC5">
+        <v>9.8053620390352557E-3</v>
+      </c>
+      <c r="BD5">
+        <v>4</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>0.96225044864937626</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>0.98504009230246226</v>
+      </c>
+      <c r="BK5">
+        <v>1.8323405701101528E-2</v>
+      </c>
+      <c r="BL5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.15856847763061521</v>
+      </c>
+      <c r="C6">
+        <v>7.0636682394592141E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.2906255722045899E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.865344603817124E-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="J6">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0.98928571428571421</v>
+      </c>
+      <c r="O6">
+        <v>1.428571428571429E-2</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0.98095238095238102</v>
+      </c>
+      <c r="W6">
+        <v>3.8095238095238092E-2</v>
+      </c>
+      <c r="X6">
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0.99428571428571433</v>
+      </c>
+      <c r="AE6">
+        <v>1.142857142857143E-2</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>0.99090909090909096</v>
+      </c>
+      <c r="AM6">
+        <v>1.8181818181818171E-2</v>
+      </c>
+      <c r="AN6">
+        <v>2</v>
+      </c>
+      <c r="AO6">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AP6">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>0.98534883720930233</v>
+      </c>
+      <c r="AU6">
+        <v>1.9837086615940549E-2</v>
+      </c>
+      <c r="AV6">
+        <v>6</v>
+      </c>
+      <c r="AW6">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="AX6">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>0.98761904761904762</v>
+      </c>
+      <c r="BC6">
+        <v>1.8467351837776511E-2</v>
+      </c>
+      <c r="BD6">
+        <v>6</v>
+      </c>
+      <c r="BE6">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BF6">
+        <v>0.92512477853306685</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>0.97761495827920053</v>
+      </c>
+      <c r="BK6">
+        <v>2.9911702968467901E-2</v>
+      </c>
+      <c r="BL6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.34998373985290532</v>
+      </c>
+      <c r="C7">
+        <v>4.7449768752197891E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.029040336608887E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.8112674897995058E-3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0.98928571428571421</v>
+      </c>
+      <c r="O7">
+        <v>1.428571428571429E-2</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0.99047619047619051</v>
+      </c>
+      <c r="W7">
+        <v>1.904761904761907E-2</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>0.98857142857142866</v>
+      </c>
+      <c r="AE7">
+        <v>1.399708424447531E-2</v>
+      </c>
+      <c r="AF7">
+        <v>7</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>0.98138528138528147</v>
+      </c>
+      <c r="AM7">
+        <v>2.2808553891462319E-2</v>
+      </c>
+      <c r="AN7">
+        <v>8</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0.98582502768549285</v>
+      </c>
+      <c r="AU7">
+        <v>1.899345875926322E-2</v>
+      </c>
+      <c r="AV7">
+        <v>5</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>0.96190476190476193</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>0.98952380952380958</v>
+      </c>
+      <c r="BC7">
+        <v>1.4876666049346E-2</v>
+      </c>
+      <c r="BD7">
+        <v>5</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>0.92380952380952386</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>0.97735190733449184</v>
+      </c>
+      <c r="BK7">
+        <v>3.037436320998663E-2</v>
+      </c>
+      <c r="BL7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.10359754562377931</v>
+      </c>
+      <c r="C8">
+        <v>1.235936816536142E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.611231803894043E-2</v>
+      </c>
+      <c r="E8">
+        <v>3.1058383258032981E-3</v>
+      </c>
+      <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="J8">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="O8">
+        <v>1.5971914124998491E-2</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="Z8">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>0.97142857142857131</v>
+      </c>
+      <c r="AE8">
+        <v>2.55550625999976E-2</v>
+      </c>
+      <c r="AF8">
+        <v>13</v>
+      </c>
+      <c r="AG8">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="AH8">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>0.95612648221343866</v>
+      </c>
+      <c r="AM8">
+        <v>3.8896172648672088E-2</v>
+      </c>
+      <c r="AN8">
+        <v>13</v>
+      </c>
+      <c r="AO8">
+        <v>0.95454545454545447</v>
+      </c>
+      <c r="AP8">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0.95454545454545447</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>0.97716701902748415</v>
+      </c>
+      <c r="AU8">
+        <v>2.032899007398839E-2</v>
+      </c>
+      <c r="AV8">
+        <v>7</v>
+      </c>
+      <c r="AW8">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="AX8">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="BC8">
+        <v>1.27775312999988E-2</v>
+      </c>
+      <c r="BD8">
+        <v>7</v>
+      </c>
+      <c r="BE8">
+        <v>0.9278305692406299</v>
+      </c>
+      <c r="BF8">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>0.9278305692406299</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8">
+        <v>0.96372223026883896</v>
+      </c>
+      <c r="BK8">
+        <v>3.2277460048101662E-2</v>
+      </c>
+      <c r="BL8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>5.7179355621337892E-2</v>
+      </c>
+      <c r="C9">
+        <v>6.0417613181168667E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.8452453613281249E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.452364697712219E-3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="J9">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="K9">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="O9">
+        <v>1.5971914124998491E-2</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="S9">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0.97142857142857131</v>
+      </c>
+      <c r="W9">
+        <v>3.8095238095238099E-2</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>0.98857142857142866</v>
+      </c>
+      <c r="AE9">
+        <v>1.399708424447531E-2</v>
+      </c>
+      <c r="AF9">
+        <v>7</v>
+      </c>
+      <c r="AG9">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>0.98138528138528136</v>
+      </c>
+      <c r="AM9">
+        <v>2.280855389146233E-2</v>
+      </c>
+      <c r="AN9">
+        <v>9</v>
+      </c>
+      <c r="AO9">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AP9">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AQ9">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>0.97582502768549284</v>
+      </c>
+      <c r="AU9">
+        <v>2.1846098721503761E-2</v>
+      </c>
+      <c r="AV9">
+        <v>8</v>
+      </c>
+      <c r="AW9">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="AX9">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AY9">
+        <v>0.96190476190476193</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="BC9">
+        <v>1.961072407807048E-2</v>
+      </c>
+      <c r="BD9">
+        <v>8</v>
+      </c>
+      <c r="BE9">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BF9">
+        <v>0.92512477853306685</v>
+      </c>
+      <c r="BG9">
+        <v>0.92380952380952386</v>
+      </c>
+      <c r="BH9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <v>1</v>
+      </c>
+      <c r="BJ9">
+        <v>0.96237686304110515</v>
+      </c>
+      <c r="BK9">
+        <v>3.3783092888519488E-2</v>
+      </c>
+      <c r="BL9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.1151796817779541</v>
+      </c>
+      <c r="C10">
+        <v>5.4618996200019908E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.6287136077880859E-2</v>
+      </c>
+      <c r="E10">
+        <v>4.6388878005445538E-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
         <v>70</v>
       </c>
-      <c r="I5">
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10">
         <v>0.9821428571428571</v>
       </c>
-      <c r="J5">
+      <c r="J10">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="O10">
+        <v>2.7664166758624389E-2</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0.96190476190476182</v>
+      </c>
+      <c r="W10">
+        <v>7.6190476190476183E-2</v>
+      </c>
+      <c r="X10">
+        <v>11</v>
+      </c>
+      <c r="Y10">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>0.99428571428571433</v>
+      </c>
+      <c r="AE10">
+        <v>1.142857142857143E-2</v>
+      </c>
+      <c r="AF10">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>0.99090909090909096</v>
+      </c>
+      <c r="AM10">
+        <v>1.8181818181818171E-2</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AP10">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>0.97429620563035502</v>
+      </c>
+      <c r="AU10">
+        <v>4.0786615617446322E-2</v>
+      </c>
+      <c r="AV10">
+        <v>9</v>
+      </c>
+      <c r="AW10">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="AX10">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>0.97809523809523813</v>
+      </c>
+      <c r="BC10">
+        <v>3.7081756826536728E-2</v>
+      </c>
+      <c r="BD10">
+        <v>10</v>
+      </c>
+      <c r="BE10">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BF10">
+        <v>0.85234718659459796</v>
+      </c>
+      <c r="BG10">
+        <v>1</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>1</v>
+      </c>
+      <c r="BJ10">
+        <v>0.96305943989150666</v>
+      </c>
+      <c r="BK10">
+        <v>5.7185714908080117E-2</v>
+      </c>
+      <c r="BL10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>6.1000680923461913E-2</v>
+      </c>
+      <c r="C11">
+        <v>9.7815272267722537E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.9547176361083989E-2</v>
+      </c>
+      <c r="E11">
+        <v>3.2239182265100881E-3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="J11">
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="K11">
         <v>0.9642857142857143</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0.9892857142857142</v>
-      </c>
-      <c r="O5">
-        <v>0.01428571428571429</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>0.980952380952381</v>
-      </c>
-      <c r="W5">
-        <v>0.03809523809523809</v>
-      </c>
-      <c r="X5">
-        <v>2</v>
-      </c>
-      <c r="Y5">
-        <v>0.9714285714285714</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>1</v>
-      </c>
-      <c r="AD5">
-        <v>0.9942857142857143</v>
-      </c>
-      <c r="AE5">
-        <v>0.01142857142857143</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>0.9545454545454546</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <v>0.990909090909091</v>
-      </c>
-      <c r="AM5">
-        <v>0.01818181818181817</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0.97857142857142843</v>
+      </c>
+      <c r="O11">
+        <v>2.0824828195876079E-2</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="S11">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0.98095238095238102</v>
+      </c>
+      <c r="W11">
+        <v>2.3328473740792201E-2</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="Z11">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="AA11">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>0.9771428571428572</v>
+      </c>
+      <c r="AE11">
+        <v>2.1380899352993959E-2</v>
+      </c>
+      <c r="AF11">
+        <v>11</v>
+      </c>
+      <c r="AG11">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AH11">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AI11">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>0.96320346320346317</v>
+      </c>
+      <c r="AM11">
+        <v>3.4141548317108847E-2</v>
+      </c>
+      <c r="AN11">
+        <v>12</v>
+      </c>
+      <c r="AO11">
         <v>0.9767441860465117</v>
       </c>
-      <c r="AP5">
-        <v>0.9500000000000001</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AR5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>0.9853488372093023</v>
-      </c>
-      <c r="AU5">
-        <v>0.01983708661594055</v>
-      </c>
-      <c r="AV5">
-        <v>2</v>
-      </c>
-      <c r="AW5">
-        <v>0.9857142857142857</v>
-      </c>
-      <c r="AX5">
-        <v>0.9523809523809523</v>
-      </c>
-      <c r="AY5">
-        <v>1</v>
-      </c>
-      <c r="AZ5">
-        <v>1</v>
-      </c>
-      <c r="BA5">
-        <v>1</v>
-      </c>
-      <c r="BB5">
-        <v>0.9876190476190476</v>
-      </c>
-      <c r="BC5">
-        <v>0.01846735183777651</v>
-      </c>
-      <c r="BD5">
-        <v>2</v>
-      </c>
-      <c r="BE5">
-        <v>0.9629500128629354</v>
-      </c>
-      <c r="BF5">
-        <v>0.9251247785330668</v>
-      </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
-        <v>1</v>
-      </c>
-      <c r="BI5">
-        <v>1</v>
-      </c>
-      <c r="BJ5">
-        <v>0.9776149582792005</v>
-      </c>
-      <c r="BK5">
-        <v>0.0299117029684679</v>
-      </c>
-      <c r="BL5">
-        <v>2</v>
+      <c r="AP11">
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="AQ11">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>0.97187153931339976</v>
+      </c>
+      <c r="AU11">
+        <v>2.7275817199672321E-2</v>
+      </c>
+      <c r="AV11">
+        <v>10</v>
+      </c>
+      <c r="AW11">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="AX11">
+        <v>0.94761904761904758</v>
+      </c>
+      <c r="AY11">
+        <v>0.96190476190476193</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>0.97904761904761917</v>
+      </c>
+      <c r="BC11">
+        <v>2.0995626366712958E-2</v>
+      </c>
+      <c r="BD11">
+        <v>9</v>
+      </c>
+      <c r="BE11">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BF11">
+        <v>0.88742452165799923</v>
+      </c>
+      <c r="BG11">
+        <v>0.92380952380952386</v>
+      </c>
+      <c r="BH11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BJ11">
+        <v>0.95483681166609169</v>
+      </c>
+      <c r="BK11">
+        <v>4.3937138346729167E-2</v>
+      </c>
+      <c r="BL11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>9.5393180847167969E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.6854975218805542E-3</v>
+      </c>
+      <c r="D12">
+        <v>2.461156845092773E-2</v>
+      </c>
+      <c r="E12">
+        <v>6.8622212943988993E-3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="J12">
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="K12">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="L12">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O12">
+        <v>1.821078397711709E-2</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0.99047619047619051</v>
+      </c>
+      <c r="W12">
+        <v>1.904761904761907E-2</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="Z12">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="AA12">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="AB12">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>0.96571428571428564</v>
+      </c>
+      <c r="AE12">
+        <v>2.1380899352993959E-2</v>
+      </c>
+      <c r="AF12">
+        <v>14</v>
+      </c>
+      <c r="AG12">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AH12">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AI12">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AJ12">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>0.94624505928853753</v>
+      </c>
+      <c r="AM12">
+        <v>3.3196875254697347E-2</v>
+      </c>
+      <c r="AN12">
+        <v>14</v>
+      </c>
+      <c r="AO12">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AP12">
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="AQ12">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AR12">
+        <v>0.95454545454545447</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>0.96765327695560255</v>
+      </c>
+      <c r="AU12">
+        <v>2.3595444276200798E-2</v>
+      </c>
+      <c r="AV12">
+        <v>11</v>
+      </c>
+      <c r="AW12">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="AX12">
+        <v>0.94761904761904758</v>
+      </c>
+      <c r="AY12">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="AZ12">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>0.97809523809523813</v>
+      </c>
+      <c r="BC12">
+        <v>1.7715309750226931E-2</v>
+      </c>
+      <c r="BD12">
+        <v>10</v>
+      </c>
+      <c r="BE12">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BF12">
+        <v>0.88742452165799923</v>
+      </c>
+      <c r="BG12">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BH12">
+        <v>0.9278305692406299</v>
+      </c>
+      <c r="BI12">
+        <v>1</v>
+      </c>
+      <c r="BJ12">
+        <v>0.94823102332489984</v>
+      </c>
+      <c r="BK12">
+        <v>3.8018241473902641E-2</v>
+      </c>
+      <c r="BL12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.118458890914917</v>
+      </c>
+      <c r="C13">
+        <v>5.3872725578049631E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.8461513519287109E-2</v>
+      </c>
+      <c r="E13">
+        <v>3.229692048656588E-3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="J13">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="K13">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="L13">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O13">
+        <v>2.422260708259022E-2</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="S13">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="W13">
+        <v>7.3771111356331742E-2</v>
+      </c>
+      <c r="X13">
+        <v>12</v>
+      </c>
+      <c r="Y13">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>0.98857142857142866</v>
+      </c>
+      <c r="AE13">
+        <v>1.399708424447531E-2</v>
+      </c>
+      <c r="AF13">
+        <v>7</v>
+      </c>
+      <c r="AG13">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>0.98181818181818181</v>
+      </c>
+      <c r="AM13">
+        <v>2.2268088570756139E-2</v>
+      </c>
+      <c r="AN13">
+        <v>7</v>
+      </c>
+      <c r="AO13">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AP13">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="AQ13">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="AR13">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>0.96476699405916944</v>
+      </c>
+      <c r="AU13">
+        <v>3.6194084142959881E-2</v>
+      </c>
+      <c r="AV13">
+        <v>12</v>
+      </c>
+      <c r="AW13">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="AX13">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="AY13">
+        <v>0.97619047619047616</v>
+      </c>
+      <c r="AZ13">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>0.9704761904761906</v>
+      </c>
+      <c r="BC13">
+        <v>3.3725583256430033E-2</v>
+      </c>
+      <c r="BD13">
+        <v>12</v>
+      </c>
+      <c r="BE13">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BF13">
+        <v>0.85234718659459796</v>
+      </c>
+      <c r="BG13">
+        <v>0.96225044864937626</v>
+      </c>
+      <c r="BH13">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BI13">
+        <v>1</v>
+      </c>
+      <c r="BJ13">
+        <v>0.94809953219396914</v>
+      </c>
+      <c r="BK13">
+        <v>5.0006983982225632E-2</v>
+      </c>
+      <c r="BL13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4.9470090866088869E-2</v>
+      </c>
+      <c r="C14">
+        <v>2.0896370380734039E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.933202743530273E-2</v>
+      </c>
+      <c r="E14">
+        <v>4.0721460709741957E-3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="J14">
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="K14">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="L14">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="M14">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="N14">
+        <v>0.96785714285714286</v>
+      </c>
+      <c r="O14">
+        <v>1.3363062095621211E-2</v>
+      </c>
+      <c r="P14">
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="R14">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="S14">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0.96785714285714286</v>
+      </c>
+      <c r="W14">
+        <v>5.5532875189002878E-2</v>
+      </c>
+      <c r="X14">
+        <v>13</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="AC14">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="AD14">
+        <v>0.98285714285714287</v>
+      </c>
+      <c r="AE14">
+        <v>2.2857142857142861E-2</v>
+      </c>
+      <c r="AF14">
+        <v>10</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="AK14">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AL14">
+        <v>0.97351778656126486</v>
+      </c>
+      <c r="AM14">
+        <v>3.4988610239258082E-2</v>
+      </c>
+      <c r="AN14">
+        <v>10</v>
+      </c>
+      <c r="AO14">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AP14">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="AQ14">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="AR14">
+        <v>0.95454545454545447</v>
+      </c>
+      <c r="AS14">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AT14">
+        <v>0.95599526395329004</v>
+      </c>
+      <c r="AU14">
+        <v>1.9682013989170979E-2</v>
+      </c>
+      <c r="AV14">
+        <v>13</v>
+      </c>
+      <c r="AW14">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AX14">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="AY14">
+        <v>0.97619047619047616</v>
+      </c>
+      <c r="AZ14">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="BA14">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="BB14">
+        <v>0.96285714285714286</v>
+      </c>
+      <c r="BC14">
+        <v>2.0292643573964281E-2</v>
+      </c>
+      <c r="BD14">
+        <v>13</v>
+      </c>
+      <c r="BE14">
+        <v>0.92512477853306685</v>
+      </c>
+      <c r="BF14">
+        <v>0.88852331663863848</v>
+      </c>
+      <c r="BG14">
+        <v>0.96225044864937626</v>
+      </c>
+      <c r="BH14">
+        <v>0.9278305692406299</v>
+      </c>
+      <c r="BI14">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BJ14">
+        <v>0.93333582518492941</v>
+      </c>
+      <c r="BK14">
+        <v>2.763673502518561E-2</v>
+      </c>
+      <c r="BL14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>3.9345312118530283E-2</v>
+      </c>
+      <c r="C15">
+        <v>2.737243377681514E-3</v>
+      </c>
+      <c r="D15">
+        <v>2.1600437164306641E-2</v>
+      </c>
+      <c r="E15">
+        <v>4.651911102406283E-3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15">
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="J15">
+        <v>0.9464285714285714</v>
+      </c>
+      <c r="K15">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="L15">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="M15">
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="N15">
+        <v>0.96428571428571419</v>
+      </c>
+      <c r="O15">
+        <v>1.5971914124998491E-2</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="R15">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="S15">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="W15">
+        <v>5.5532875189002878E-2</v>
+      </c>
+      <c r="X15">
+        <v>13</v>
+      </c>
+      <c r="Y15">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="AC15">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="AD15">
+        <v>0.9771428571428572</v>
+      </c>
+      <c r="AE15">
+        <v>2.1380899352993959E-2</v>
+      </c>
+      <c r="AF15">
+        <v>11</v>
+      </c>
+      <c r="AG15">
+        <v>0.95</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="AK15">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AL15">
+        <v>0.96351778656126486</v>
+      </c>
+      <c r="AM15">
+        <v>3.3084113675599838E-2</v>
+      </c>
+      <c r="AN15">
+        <v>11</v>
+      </c>
+      <c r="AO15">
+        <v>0.92682926829268286</v>
+      </c>
+      <c r="AP15">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="AQ15">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="AR15">
+        <v>0.95454545454545447</v>
+      </c>
+      <c r="AS15">
+        <v>0.9767441860465117</v>
+      </c>
+      <c r="AT15">
+        <v>0.95136111761182662</v>
+      </c>
+      <c r="AU15">
+        <v>2.299671248150071E-2</v>
+      </c>
+      <c r="AV15">
+        <v>14</v>
+      </c>
+      <c r="AW15">
+        <v>0.93809523809523798</v>
+      </c>
+      <c r="AX15">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="AY15">
+        <v>0.97619047619047616</v>
+      </c>
+      <c r="AZ15">
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="BA15">
+        <v>0.98571428571428565</v>
+      </c>
+      <c r="BB15">
+        <v>0.96</v>
+      </c>
+      <c r="BC15">
+        <v>2.2456811662003039E-2</v>
+      </c>
+      <c r="BD15">
+        <v>14</v>
+      </c>
+      <c r="BE15">
+        <v>0.88527041275742613</v>
+      </c>
+      <c r="BF15">
+        <v>0.88852331663863848</v>
+      </c>
+      <c r="BG15">
+        <v>0.96225044864937626</v>
+      </c>
+      <c r="BH15">
+        <v>0.9278305692406299</v>
+      </c>
+      <c r="BI15">
+        <v>0.96295001286293536</v>
+      </c>
+      <c r="BJ15">
+        <v>0.92536495202980118</v>
+      </c>
+      <c r="BK15">
+        <v>3.3894347920244212E-2</v>
+      </c>
+      <c r="BL15">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>